--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cthrc1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H2">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2767476666666667</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N2">
-        <v>0.8302430000000001</v>
+        <v>0.975449</v>
       </c>
       <c r="O2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P2">
-        <v>0.1013437297028556</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q2">
-        <v>0.1446453044568889</v>
+        <v>0.2802203773434445</v>
       </c>
       <c r="R2">
-        <v>1.301807740112</v>
+        <v>2.521983396091</v>
       </c>
       <c r="S2">
-        <v>0.000417411753776073</v>
+        <v>0.0004823552338685857</v>
       </c>
       <c r="T2">
-        <v>0.000417411753776073</v>
+        <v>0.0004823552338685855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H3">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>3.023459</v>
       </c>
       <c r="O3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P3">
-        <v>0.3690589522147927</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q3">
-        <v>0.5267483707395555</v>
+        <v>0.8685588091867777</v>
       </c>
       <c r="R3">
-        <v>4.740735336656</v>
+        <v>7.817029282681</v>
       </c>
       <c r="S3">
-        <v>0.001520069815295103</v>
+        <v>0.001495087157849442</v>
       </c>
       <c r="T3">
-        <v>0.001520069815295103</v>
+        <v>0.001495087157849441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H4">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.446215</v>
+        <v>3.226895</v>
       </c>
       <c r="N4">
-        <v>4.338645</v>
+        <v>9.680685</v>
       </c>
       <c r="O4">
-        <v>0.5295973180823518</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P4">
-        <v>0.5295973180823517</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q4">
-        <v>0.7558806601866666</v>
+        <v>2.781001573268334</v>
       </c>
       <c r="R4">
-        <v>6.80292594168</v>
+        <v>25.029014159415</v>
       </c>
       <c r="S4">
-        <v>0.00218129080096043</v>
+        <v>0.004787056091280128</v>
       </c>
       <c r="T4">
-        <v>0.00218129080096043</v>
+        <v>0.004787056091280126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>125.8872733333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H5">
-        <v>377.66182</v>
+        <v>2.585459</v>
       </c>
       <c r="I5">
-        <v>0.9920401416289004</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J5">
-        <v>0.9920401416289004</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2767476666666667</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N5">
-        <v>0.8302430000000001</v>
+        <v>0.01852</v>
       </c>
       <c r="O5">
-        <v>0.1013437297028556</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="P5">
-        <v>0.1013437297028556</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="Q5">
-        <v>34.83900915802889</v>
+        <v>0.005320300075555556</v>
       </c>
       <c r="R5">
-        <v>313.55108242226</v>
+        <v>0.04788270068</v>
       </c>
       <c r="S5">
-        <v>0.1005370479676219</v>
+        <v>9.158058423604111E-06</v>
       </c>
       <c r="T5">
-        <v>0.1005370479676219</v>
+        <v>9.158058423604107E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,40 +791,40 @@
         <v>377.66182</v>
       </c>
       <c r="I6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.007819666666667</v>
+        <v>0.3251496666666667</v>
       </c>
       <c r="N6">
-        <v>3.023459</v>
+        <v>0.975449</v>
       </c>
       <c r="O6">
-        <v>0.3690589522147927</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="P6">
-        <v>0.3690589522147927</v>
+        <v>0.07121046526627427</v>
       </c>
       <c r="Q6">
-        <v>126.8716698483755</v>
+        <v>40.93220496190889</v>
       </c>
       <c r="R6">
-        <v>1141.84502863538</v>
+        <v>368.38984465718</v>
       </c>
       <c r="S6">
-        <v>0.3661212952245765</v>
+        <v>0.07045834241012357</v>
       </c>
       <c r="T6">
-        <v>0.3661212952245765</v>
+        <v>0.07045834241012357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>377.66182</v>
       </c>
       <c r="I7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.446215</v>
+        <v>1.007819666666667</v>
       </c>
       <c r="N7">
-        <v>4.338645</v>
+        <v>3.023459</v>
       </c>
       <c r="O7">
-        <v>0.5295973180823518</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="P7">
-        <v>0.5295973180823517</v>
+        <v>0.2207208394324094</v>
       </c>
       <c r="Q7">
-        <v>182.0600630037667</v>
+        <v>126.8716698483755</v>
       </c>
       <c r="R7">
-        <v>1638.5405670339</v>
+        <v>1141.84502863538</v>
       </c>
       <c r="S7">
-        <v>0.5253817984367021</v>
+        <v>0.2183895923671763</v>
       </c>
       <c r="T7">
-        <v>0.525381798436702</v>
+        <v>0.2183895923671763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4874236666666667</v>
+        <v>125.8872733333333</v>
       </c>
       <c r="H8">
-        <v>1.462271</v>
+        <v>377.66182</v>
       </c>
       <c r="I8">
-        <v>0.003841086001067924</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J8">
-        <v>0.003841086001067923</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,90 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2767476666666667</v>
+        <v>3.226895</v>
       </c>
       <c r="N8">
-        <v>0.8302430000000001</v>
+        <v>9.680685</v>
       </c>
       <c r="O8">
-        <v>0.1013437297028556</v>
+        <v>0.7067166842615477</v>
       </c>
       <c r="P8">
-        <v>0.1013437297028556</v>
+        <v>0.7067166842615475</v>
       </c>
       <c r="Q8">
-        <v>0.1348933624281111</v>
+        <v>406.2250128829667</v>
       </c>
       <c r="R8">
-        <v>1.214040261853</v>
+        <v>3656.025115946701</v>
       </c>
       <c r="S8">
-        <v>0.0003892699814576502</v>
+        <v>0.6992523632650679</v>
       </c>
       <c r="T8">
-        <v>0.0003892699814576502</v>
+        <v>0.6992523632650678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4874236666666667</v>
+        <v>125.8872733333333</v>
       </c>
       <c r="H9">
-        <v>1.462271</v>
+        <v>377.66182</v>
       </c>
       <c r="I9">
-        <v>0.003841086001067924</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J9">
-        <v>0.003841086001067923</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.007819666666667</v>
+        <v>0.006173333333333333</v>
       </c>
       <c r="N9">
-        <v>3.023459</v>
+        <v>0.01852</v>
       </c>
       <c r="O9">
-        <v>0.3690589522147927</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="P9">
-        <v>0.3690589522147927</v>
+        <v>0.001352011039768762</v>
       </c>
       <c r="Q9">
-        <v>0.4912351572654444</v>
+        <v>0.7771441007111111</v>
       </c>
       <c r="R9">
-        <v>4.421116415389</v>
+        <v>6.9942969064</v>
       </c>
       <c r="S9">
-        <v>0.001417587174921036</v>
+        <v>0.001337731138619742</v>
       </c>
       <c r="T9">
-        <v>0.001417587174921036</v>
+        <v>0.001337731138619742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.279391</v>
+      </c>
+      <c r="I10">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J10">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3251496666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.975449</v>
+      </c>
+      <c r="O10">
+        <v>0.07121046526627427</v>
+      </c>
+      <c r="P10">
+        <v>0.07121046526627427</v>
+      </c>
+      <c r="Q10">
+        <v>0.1386645190621111</v>
+      </c>
+      <c r="R10">
+        <v>1.247980671559</v>
+      </c>
+      <c r="S10">
+        <v>0.0002386891244511568</v>
+      </c>
+      <c r="T10">
+        <v>0.0002386891244511568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.279391</v>
+      </c>
+      <c r="I11">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J11">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.007819666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.023459</v>
+      </c>
+      <c r="O11">
+        <v>0.2207208394324094</v>
+      </c>
+      <c r="P11">
+        <v>0.2207208394324094</v>
+      </c>
+      <c r="Q11">
+        <v>0.4297984703854444</v>
+      </c>
+      <c r="R11">
+        <v>3.868186233469</v>
+      </c>
+      <c r="S11">
+        <v>0.0007398303566090796</v>
+      </c>
+      <c r="T11">
+        <v>0.0007398303566090796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.279391</v>
+      </c>
+      <c r="I12">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J12">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.226895</v>
+      </c>
+      <c r="N12">
+        <v>9.680685</v>
+      </c>
+      <c r="O12">
+        <v>0.7067166842615477</v>
+      </c>
+      <c r="P12">
+        <v>0.7067166842615475</v>
+      </c>
+      <c r="Q12">
+        <v>1.376153473648333</v>
+      </c>
+      <c r="R12">
+        <v>12.385381262835</v>
+      </c>
+      <c r="S12">
+        <v>0.002368831406600907</v>
+      </c>
+      <c r="T12">
+        <v>0.002368831406600906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.279391</v>
+      </c>
+      <c r="I13">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J13">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.006173333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.01852</v>
+      </c>
+      <c r="O13">
+        <v>0.001352011039768762</v>
+      </c>
+      <c r="P13">
+        <v>0.001352011039768762</v>
+      </c>
+      <c r="Q13">
+        <v>0.002632702368888888</v>
+      </c>
+      <c r="R13">
+        <v>0.02369432132</v>
+      </c>
+      <c r="S13">
+        <v>4.531782373896969E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.531782373896968E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.166583</v>
+      </c>
+      <c r="I14">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J14">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3251496666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.975449</v>
+      </c>
+      <c r="O14">
+        <v>0.07121046526627427</v>
+      </c>
+      <c r="P14">
+        <v>0.07121046526627427</v>
+      </c>
+      <c r="Q14">
+        <v>0.01805480230744445</v>
+      </c>
+      <c r="R14">
+        <v>0.162493220767</v>
+      </c>
+      <c r="S14">
+        <v>3.10784978309579E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.10784978309579E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.166583</v>
+      </c>
+      <c r="I15">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J15">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.007819666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.023459</v>
+      </c>
+      <c r="O15">
+        <v>0.2207208394324094</v>
+      </c>
+      <c r="P15">
+        <v>0.2207208394324094</v>
+      </c>
+      <c r="Q15">
+        <v>0.05596187451077778</v>
+      </c>
+      <c r="R15">
+        <v>0.503656870597</v>
+      </c>
+      <c r="S15">
+        <v>9.632955077455629E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.632955077455627E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.4874236666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.462271</v>
-      </c>
-      <c r="I10">
-        <v>0.003841086001067924</v>
-      </c>
-      <c r="J10">
-        <v>0.003841086001067923</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.446215</v>
-      </c>
-      <c r="N10">
-        <v>4.338645</v>
-      </c>
-      <c r="O10">
-        <v>0.5295973180823518</v>
-      </c>
-      <c r="P10">
-        <v>0.5295973180823517</v>
-      </c>
-      <c r="Q10">
-        <v>0.7049194180883332</v>
-      </c>
-      <c r="R10">
-        <v>6.344274762795</v>
-      </c>
-      <c r="S10">
-        <v>0.002034228844689238</v>
-      </c>
-      <c r="T10">
-        <v>0.002034228844689237</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.166583</v>
+      </c>
+      <c r="I16">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J16">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.226895</v>
+      </c>
+      <c r="N16">
+        <v>9.680685</v>
+      </c>
+      <c r="O16">
+        <v>0.7067166842615477</v>
+      </c>
+      <c r="P16">
+        <v>0.7067166842615475</v>
+      </c>
+      <c r="Q16">
+        <v>0.1791819499283334</v>
+      </c>
+      <c r="R16">
+        <v>1.612637549355</v>
+      </c>
+      <c r="S16">
+        <v>0.0003084334985987856</v>
+      </c>
+      <c r="T16">
+        <v>0.0003084334985987855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.166583</v>
+      </c>
+      <c r="I17">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J17">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006173333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.01852</v>
+      </c>
+      <c r="O17">
+        <v>0.001352011039768762</v>
+      </c>
+      <c r="P17">
+        <v>0.001352011039768762</v>
+      </c>
+      <c r="Q17">
+        <v>0.0003427907955555556</v>
+      </c>
+      <c r="R17">
+        <v>0.00308511716</v>
+      </c>
+      <c r="S17">
+        <v>5.900603515194955E-07</v>
+      </c>
+      <c r="T17">
+        <v>5.900603515194954E-07</v>
       </c>
     </row>
   </sheetData>
